--- a/libertadores/datasets_liberta/resultados_fase_2.xlsx
+++ b/libertadores/datasets_liberta/resultados_fase_2.xlsx
@@ -683,8 +683,14 @@
       <c r="C2" t="s">
         <v>18</v>
       </c>
+      <c r="D2">
+        <v>118.4501953125</v>
+      </c>
       <c r="E2" t="s">
         <v>11</v>
+      </c>
+      <c r="F2">
+        <v>135.1904296875</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -697,9 +703,15 @@
       <c r="C3" t="s">
         <v>19</v>
       </c>
+      <c r="D3">
+        <v>121.93994140625</v>
+      </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
+      <c r="F3">
+        <v>93.0400390625</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
@@ -711,9 +723,15 @@
       <c r="C4" t="s">
         <v>20</v>
       </c>
+      <c r="D4">
+        <v>76.33984375</v>
+      </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
+      <c r="F4">
+        <v>109.14990234375</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
@@ -725,9 +743,15 @@
       <c r="C5" t="s">
         <v>21</v>
       </c>
+      <c r="D5">
+        <v>139.400390625</v>
+      </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
+      <c r="F5">
+        <v>135.490234375</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
@@ -739,9 +763,15 @@
       <c r="C6" t="s">
         <v>22</v>
       </c>
+      <c r="D6">
+        <v>141.6904296875</v>
+      </c>
       <c r="E6" t="s">
         <v>15</v>
       </c>
+      <c r="F6">
+        <v>98.4501953125</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
@@ -753,9 +783,15 @@
       <c r="C7" t="s">
         <v>23</v>
       </c>
+      <c r="D7">
+        <v>125.14990234375</v>
+      </c>
       <c r="E7" t="s">
         <v>14</v>
       </c>
+      <c r="F7">
+        <v>108.4501953125</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
@@ -767,9 +803,15 @@
       <c r="C8" t="s">
         <v>24</v>
       </c>
+      <c r="D8">
+        <v>73.509765625</v>
+      </c>
       <c r="E8" t="s">
         <v>17</v>
       </c>
+      <c r="F8">
+        <v>98.14990234375</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
@@ -781,8 +823,14 @@
       <c r="C9" t="s">
         <v>25</v>
       </c>
+      <c r="D9">
+        <v>89.2900390625</v>
+      </c>
       <c r="E9" t="s">
         <v>16</v>
+      </c>
+      <c r="F9">
+        <v>106.64990234375</v>
       </c>
     </row>
   </sheetData>

--- a/libertadores/datasets_liberta/resultados_fase_2.xlsx
+++ b/libertadores/datasets_liberta/resultados_fase_2.xlsx
@@ -876,8 +876,14 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
+      <c r="D2">
+        <v>68.35009765625</v>
+      </c>
       <c r="E2" t="s">
         <v>11</v>
+      </c>
+      <c r="F2">
+        <v>74.31982421875</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -890,9 +896,15 @@
       <c r="C3" t="s">
         <v>19</v>
       </c>
+      <c r="D3">
+        <v>73.75</v>
+      </c>
       <c r="E3" t="s">
         <v>18</v>
       </c>
+      <c r="F3">
+        <v>69.14990234375</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
@@ -904,9 +916,15 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
+      <c r="D4">
+        <v>56.8701171875</v>
+      </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
+      <c r="F4">
+        <v>83.89990234375</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
@@ -918,9 +936,15 @@
       <c r="C5" t="s">
         <v>21</v>
       </c>
+      <c r="D5">
+        <v>78.31982421875</v>
+      </c>
       <c r="E5" t="s">
         <v>20</v>
       </c>
+      <c r="F5">
+        <v>81.7001953125</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
@@ -932,9 +956,15 @@
       <c r="C6" t="s">
         <v>14</v>
       </c>
+      <c r="D6">
+        <v>60.570068359375</v>
+      </c>
       <c r="E6" t="s">
         <v>15</v>
       </c>
+      <c r="F6">
+        <v>60.419921875</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
@@ -946,9 +976,15 @@
       <c r="C7" t="s">
         <v>23</v>
       </c>
+      <c r="D7">
+        <v>54.719970703125</v>
+      </c>
       <c r="E7" t="s">
         <v>22</v>
       </c>
+      <c r="F7">
+        <v>75.22021484375</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
@@ -960,9 +996,15 @@
       <c r="C8" t="s">
         <v>16</v>
       </c>
+      <c r="D8">
+        <v>74.25</v>
+      </c>
       <c r="E8" t="s">
         <v>17</v>
       </c>
+      <c r="F8">
+        <v>65.419921875</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
@@ -974,8 +1016,14 @@
       <c r="C9" t="s">
         <v>25</v>
       </c>
+      <c r="D9">
+        <v>74.35009765625</v>
+      </c>
       <c r="E9" t="s">
         <v>24</v>
+      </c>
+      <c r="F9">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/libertadores/datasets_liberta/resultados_fase_2.xlsx
+++ b/libertadores/datasets_liberta/resultados_fase_2.xlsx
@@ -1069,8 +1069,14 @@
       <c r="C2" t="s">
         <v>18</v>
       </c>
+      <c r="D2">
+        <v>57.169921875</v>
+      </c>
       <c r="E2" t="s">
         <v>10</v>
+      </c>
+      <c r="F2">
+        <v>64.5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1083,9 +1089,15 @@
       <c r="C3" t="s">
         <v>19</v>
       </c>
+      <c r="D3">
+        <v>76.97021484375</v>
+      </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
+      <c r="F3">
+        <v>79.8701171875</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
@@ -1097,9 +1109,15 @@
       <c r="C4" t="s">
         <v>20</v>
       </c>
+      <c r="D4">
+        <v>68.669921875</v>
+      </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
+      <c r="F4">
+        <v>54.070068359375</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
@@ -1111,9 +1129,15 @@
       <c r="C5" t="s">
         <v>21</v>
       </c>
+      <c r="D5">
+        <v>54.27001953125</v>
+      </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
+      <c r="F5">
+        <v>73.669921875</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
@@ -1125,9 +1149,15 @@
       <c r="C6" t="s">
         <v>22</v>
       </c>
+      <c r="D6">
+        <v>18.3499755859375</v>
+      </c>
       <c r="E6" t="s">
         <v>14</v>
       </c>
+      <c r="F6">
+        <v>50.3701171875</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
@@ -1139,9 +1169,15 @@
       <c r="C7" t="s">
         <v>23</v>
       </c>
+      <c r="D7">
+        <v>44.3701171875</v>
+      </c>
       <c r="E7" t="s">
         <v>15</v>
       </c>
+      <c r="F7">
+        <v>40.77001953125</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
@@ -1153,9 +1189,15 @@
       <c r="C8" t="s">
         <v>24</v>
       </c>
+      <c r="D8">
+        <v>53.3701171875</v>
+      </c>
       <c r="E8" t="s">
         <v>16</v>
       </c>
+      <c r="F8">
+        <v>73.56982421875</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
@@ -1167,8 +1209,14 @@
       <c r="C9" t="s">
         <v>25</v>
       </c>
+      <c r="D9">
+        <v>67.27001953125</v>
+      </c>
       <c r="E9" t="s">
         <v>17</v>
+      </c>
+      <c r="F9">
+        <v>53.969970703125</v>
       </c>
     </row>
   </sheetData>

--- a/libertadores/datasets_liberta/resultados_fase_2.xlsx
+++ b/libertadores/datasets_liberta/resultados_fase_2.xlsx
@@ -1262,8 +1262,14 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
+      <c r="D2">
+        <v>105.5400390625</v>
+      </c>
       <c r="E2" t="s">
         <v>18</v>
+      </c>
+      <c r="F2">
+        <v>118.31005859375</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1276,9 +1282,15 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
+      <c r="D3">
+        <v>123.919921875</v>
+      </c>
       <c r="E3" t="s">
         <v>19</v>
       </c>
+      <c r="F3">
+        <v>124.47021484375</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
@@ -1290,9 +1302,15 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
+      <c r="D4">
+        <v>110.509765625</v>
+      </c>
       <c r="E4" t="s">
         <v>20</v>
       </c>
+      <c r="F4">
+        <v>72.16015625</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
@@ -1304,9 +1322,15 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
+      <c r="D5">
+        <v>115.77001953125</v>
+      </c>
       <c r="E5" t="s">
         <v>21</v>
       </c>
+      <c r="F5">
+        <v>84.740234375</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
@@ -1318,9 +1342,15 @@
       <c r="C6" t="s">
         <v>15</v>
       </c>
+      <c r="D6">
+        <v>79.91015625</v>
+      </c>
       <c r="E6" t="s">
         <v>22</v>
       </c>
+      <c r="F6">
+        <v>40.929931640625</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
@@ -1332,9 +1362,15 @@
       <c r="C7" t="s">
         <v>14</v>
       </c>
+      <c r="D7">
+        <v>104.47021484375</v>
+      </c>
       <c r="E7" t="s">
         <v>23</v>
       </c>
+      <c r="F7">
+        <v>76.009765625</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
@@ -1346,9 +1382,15 @@
       <c r="C8" t="s">
         <v>17</v>
       </c>
+      <c r="D8">
+        <v>102.85986328125</v>
+      </c>
       <c r="E8" t="s">
         <v>24</v>
       </c>
+      <c r="F8">
+        <v>97.81005859375</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
@@ -1360,8 +1402,14 @@
       <c r="C9" t="s">
         <v>16</v>
       </c>
+      <c r="D9">
+        <v>120.27001953125</v>
+      </c>
       <c r="E9" t="s">
         <v>25</v>
+      </c>
+      <c r="F9">
+        <v>76.580078125</v>
       </c>
     </row>
   </sheetData>

--- a/libertadores/datasets_liberta/resultados_fase_2.xlsx
+++ b/libertadores/datasets_liberta/resultados_fase_2.xlsx
@@ -1455,8 +1455,14 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
+      <c r="D2">
+        <v>69.91015625</v>
+      </c>
       <c r="E2" t="s">
         <v>10</v>
+      </c>
+      <c r="F2">
+        <v>40.739990234375</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1469,9 +1475,15 @@
       <c r="C3" t="s">
         <v>18</v>
       </c>
+      <c r="D3">
+        <v>65.81005859375</v>
+      </c>
       <c r="E3" t="s">
         <v>19</v>
       </c>
+      <c r="F3">
+        <v>62.760009765625</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
@@ -1483,9 +1495,15 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
+      <c r="D4">
+        <v>69.259765625</v>
+      </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
+      <c r="F4">
+        <v>63.56005859375</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
@@ -1497,9 +1515,15 @@
       <c r="C5" t="s">
         <v>20</v>
       </c>
+      <c r="D5">
+        <v>73.66015625</v>
+      </c>
       <c r="E5" t="s">
         <v>21</v>
       </c>
+      <c r="F5">
+        <v>59.47998046875</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
@@ -1511,9 +1535,15 @@
       <c r="C6" t="s">
         <v>15</v>
       </c>
+      <c r="D6">
+        <v>71.2099609375</v>
+      </c>
       <c r="E6" t="s">
         <v>14</v>
       </c>
+      <c r="F6">
+        <v>89.60986328125</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
@@ -1525,9 +1555,15 @@
       <c r="C7" t="s">
         <v>22</v>
       </c>
+      <c r="D7">
+        <v>66.83984375</v>
+      </c>
       <c r="E7" t="s">
         <v>23</v>
       </c>
+      <c r="F7">
+        <v>54.090087890625</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
@@ -1539,9 +1575,15 @@
       <c r="C8" t="s">
         <v>17</v>
       </c>
+      <c r="D8">
+        <v>44.4599609375</v>
+      </c>
       <c r="E8" t="s">
         <v>16</v>
       </c>
+      <c r="F8">
+        <v>58.4599609375</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
@@ -1553,8 +1595,14 @@
       <c r="C9" t="s">
         <v>24</v>
       </c>
+      <c r="D9">
+        <v>69.2998046875</v>
+      </c>
       <c r="E9" t="s">
         <v>25</v>
+      </c>
+      <c r="F9">
+        <v>39.239990234375</v>
       </c>
     </row>
   </sheetData>
